--- a/Data/CTL_inputs.xlsx
+++ b/Data/CTL_inputs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle.Sculley\Documents\SS_Intl_auto\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD2729B-093F-4849-B3E8-9E1C589C24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D4C85-C2BE-4FCF-827E-203E94917486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
+    <sheet name="AltSel_F1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -266,8 +267,255 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+    <author>Michelle Sculley</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{8A182F3F-E48F-4651-A200-87BAAFD49B21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1 = for dirichlet length sample size, 0 for multinomial, if 1 also need Theta in the parameter sheet
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{DD7B1AC3-F555-4498-B58C-F89FA4E34C9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>To add more blocks, increase N_Block_design, then add rows for each block pattern and start and end years
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{77475523-F63F-49DC-932C-0B166CBBEC8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Set this to -1000 if N_Block_Designs = 0
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{343DBADD-D495-49B8-B287-76E370B79953}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Age-specific natural mortality by sex, list M by age and sex below
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{CBE8FE9E-583E-4444-9D95-9AB0AD4977FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1 for no offset
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="1" shapeId="0" xr:uid="{37B50608-61F9-46BE-A483-A4D7A2718AD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michelle Sculley:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is for seasonal effects on biology parameters in the control file - is not currently used for any BILLWG assessments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A93" authorId="1" shapeId="0" xr:uid="{6C2615D9-D573-420C-A94D-6D1764CAF8B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michelle Sculley:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+option 1 sums devs to zero, option 2 allows free estimation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A98" authorId="1" shapeId="0" xr:uid="{932924CD-DA98-4A5F-B401-6D866DA33AA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michelle Sculley:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = none, negative = relative to start year</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A100" authorId="1" shapeId="0" xr:uid="{AE3753AF-925F-4E39-865D-D2D5482AA054}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michelle Sculley:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = max phase + 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A122" authorId="0" shapeId="0" xr:uid="{B57729FA-32A8-43BE-8BC6-B2500B95C080}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>These are the selectivity pattern settings, to add fleets add 4 additional rows per fleet
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A290" authorId="0" shapeId="0" xr:uid="{93C521A9-F472-4980-9712-8EAF8FFE1012}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Need a line for each fleet/survey
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A321" authorId="0" shapeId="0" xr:uid="{D6A0493B-459F-46CA-BA7C-0848FFA45921}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Adjust input CVs for CPUEs here, add row blocks for each fleet
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A322" authorId="0" shapeId="0" xr:uid="{56F3F23D-88E0-40BE-932B-9FE03C0CAC33}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>var_adj_factor_fleetNum
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A329" authorId="0" shapeId="0" xr:uid="{318B206B-B6A8-4B60-A7D1-AAE99B9FD698}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Use these to adjust lambda settings. Add additional as required.
+	-Michelle Sculley - NOAA Federal</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="417">
   <si>
     <t>Parameter</t>
   </si>
@@ -1825,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6559,4 +6807,4747 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77234E9-C747-46D3-A19D-247C169578D4}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J413"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E22">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1996</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2009</v>
+      </c>
+      <c r="E23">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3">
+        <v>15</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-999</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-999</v>
+      </c>
+      <c r="E71">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A93" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1985</v>
+      </c>
+      <c r="E94">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E95">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A97" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1963</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1965</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1966.9</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1967.78</v>
+      </c>
+      <c r="E102">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1994.6</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1995.25</v>
+      </c>
+      <c r="E103">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2019.4</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2020.9</v>
+      </c>
+      <c r="E104">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2020.6</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2021.73</v>
+      </c>
+      <c r="E105">
+        <v>2001.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E108">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="3">
+        <v>5</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E111">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="3">
+        <v>-1975</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1960</v>
+      </c>
+      <c r="E112">
+        <v>-2001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="3">
+        <v>8</v>
+      </c>
+      <c r="D114" s="3">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A115" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A116" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="8"/>
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A117" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="3">
+        <v>24</v>
+      </c>
+      <c r="D122" s="3">
+        <v>24</v>
+      </c>
+      <c r="E122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="3">
+        <v>24</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" s="3">
+        <v>15</v>
+      </c>
+      <c r="D130" s="3">
+        <v>24</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="3">
+        <v>24</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="3">
+        <v>24</v>
+      </c>
+      <c r="D138" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="3">
+        <v>24</v>
+      </c>
+      <c r="D142" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="3">
+        <v>15</v>
+      </c>
+      <c r="D146" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="3">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" s="3">
+        <v>15</v>
+      </c>
+      <c r="D150" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="3">
+        <v>4</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="3">
+        <v>15</v>
+      </c>
+      <c r="D154" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="3">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="3">
+        <v>15</v>
+      </c>
+      <c r="D158" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="3">
+        <v>6</v>
+      </c>
+      <c r="D161" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" s="3">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A163" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6</v>
+      </c>
+      <c r="D165" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="3">
+        <v>15</v>
+      </c>
+      <c r="D166" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A169" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" s="3">
+        <v>4</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A173" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A174" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="3">
+        <v>15</v>
+      </c>
+      <c r="D178" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="3">
+        <v>4</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A182" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="3">
+        <v>24</v>
+      </c>
+      <c r="D182" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A185" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A186" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="3">
+        <v>15</v>
+      </c>
+      <c r="D186" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A187" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" s="3">
+        <v>16</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A190" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="3">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="3">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A193" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A194" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="3">
+        <v>15</v>
+      </c>
+      <c r="D194" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A195" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" s="3">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="3">
+        <v>18</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A198" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" s="3">
+        <v>15</v>
+      </c>
+      <c r="D198" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A199" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A201" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="3">
+        <v>14</v>
+      </c>
+      <c r="D201" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A202" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="3">
+        <v>15</v>
+      </c>
+      <c r="D202" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A203" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A205" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" s="3">
+        <v>12</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A206" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" s="3">
+        <v>15</v>
+      </c>
+      <c r="D206" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A207" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" s="3">
+        <v>0</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A209" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+      <c r="D209" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A210" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" s="3">
+        <v>15</v>
+      </c>
+      <c r="D210" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A211" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A213" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="3">
+        <v>5</v>
+      </c>
+      <c r="D213" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A214" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="3">
+        <v>15</v>
+      </c>
+      <c r="D214" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A215" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="3">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="3">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A217" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="3">
+        <v>1</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A218" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="3">
+        <v>15</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A219" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="3">
+        <v>0</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A221" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="3">
+        <v>5</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A222" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="3">
+        <v>15</v>
+      </c>
+      <c r="D222" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A223" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="3">
+        <v>0</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A225" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1</v>
+      </c>
+      <c r="D225" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A226" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="3">
+        <v>15</v>
+      </c>
+      <c r="D226" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="3">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A229" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" s="3">
+        <v>5</v>
+      </c>
+      <c r="D229" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A230" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" s="3">
+        <v>15</v>
+      </c>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A231" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="3">
+        <v>0</v>
+      </c>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="3">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A233" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="3">
+        <v>16</v>
+      </c>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A234" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="3">
+        <v>15</v>
+      </c>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A235" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="3">
+        <v>0</v>
+      </c>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="3">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A237" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="3">
+        <v>18</v>
+      </c>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A238" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" s="3">
+        <v>15</v>
+      </c>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A239" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" s="3">
+        <v>0</v>
+      </c>
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="3">
+        <v>0</v>
+      </c>
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A241" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1</v>
+      </c>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A242" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="3">
+        <v>15</v>
+      </c>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A243" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" s="3">
+        <v>0</v>
+      </c>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" s="3">
+        <v>0</v>
+      </c>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A245" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="3">
+        <v>5</v>
+      </c>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A246" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" s="3">
+        <v>0</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A247" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" s="3">
+        <v>0</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A249" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" s="3">
+        <v>0</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A250" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A251" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="3">
+        <v>0</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A252" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" s="3">
+        <v>0</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A253" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" s="3">
+        <v>0</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A254" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A255" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A256" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" s="3">
+        <v>0</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A257" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" s="3">
+        <v>0</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A258" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" s="3">
+        <v>0</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A259" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" s="3">
+        <v>1</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A260" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" s="3">
+        <v>1</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A261" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A262" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A263" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A264" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" s="3">
+        <v>1</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A265" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" s="3">
+        <v>1</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A266" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A267" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" s="3">
+        <v>0</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A268" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" s="3">
+        <v>0</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A269" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C269" s="3">
+        <v>1</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A270" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" s="3">
+        <v>1</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A271" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C271" s="3">
+        <v>0</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A272" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A273" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" s="3">
+        <v>0</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A274" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1</v>
+      </c>
+      <c r="D274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A275" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A276" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" s="3">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A277" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" s="3">
+        <v>0</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A278" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A279" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
+      <c r="D279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A280" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A281" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A282" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A283" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A284" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A285" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A286" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A287" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A288" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A289" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A290" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" s="3">
+        <v>0</v>
+      </c>
+      <c r="D290" s="3">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A291" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" s="3">
+        <v>0</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A292" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" s="3">
+        <v>0</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A293" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="3">
+        <v>0</v>
+      </c>
+      <c r="D293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A294" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" s="3">
+        <v>0</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A295" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" s="3">
+        <v>0</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A296" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A297" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A298" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A299" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A300" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A301" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A302" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A303" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A304" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C304" s="3">
+        <v>0</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A305" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C305" s="3">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A306" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C306" s="3">
+        <v>0</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A307" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0</v>
+      </c>
+      <c r="D307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A308" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A309" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A310" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A311" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A312" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C312" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A313" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A314" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A315" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A316" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A317" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A318" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A319" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A320" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A322" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D322" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A323" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1.16574E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A324" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C324" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A325" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C325" s="3">
+        <v>9.3798300000000005E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A326" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C326" s="3">
+        <v>9.8232700000000006E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A327" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C327" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A328" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C328" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A329" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C329" s="3">
+        <v>1</v>
+      </c>
+      <c r="D329" s="3">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A330" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C330" s="3">
+        <v>26</v>
+      </c>
+      <c r="D330" s="3">
+        <v>25</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A331" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C331" s="3">
+        <v>1</v>
+      </c>
+      <c r="D331" s="3">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A332" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1</v>
+      </c>
+      <c r="D332" s="3">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A333" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1</v>
+      </c>
+      <c r="D333" s="3">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A334" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C334" s="3">
+        <v>1</v>
+      </c>
+      <c r="D334" s="3">
+        <v>4</v>
+      </c>
+      <c r="E334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A335" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C335" s="3">
+        <v>27</v>
+      </c>
+      <c r="D335" s="3">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A336" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1</v>
+      </c>
+      <c r="D336" s="3">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A337" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1</v>
+      </c>
+      <c r="D337" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A338" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C338" s="3">
+        <v>1</v>
+      </c>
+      <c r="D338" s="3">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A339" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1</v>
+      </c>
+      <c r="D339" s="3">
+        <v>4</v>
+      </c>
+      <c r="E339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A340" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C340" s="3">
+        <v>28</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2</v>
+      </c>
+      <c r="E340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A341" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C341" s="3">
+        <v>1</v>
+      </c>
+      <c r="D341" s="3">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A342" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C342" s="3">
+        <v>0</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A343" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C343" s="3">
+        <v>1</v>
+      </c>
+      <c r="D343" s="3">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A344" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C344" s="3">
+        <v>1</v>
+      </c>
+      <c r="D344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A345" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C345" s="3">
+        <v>29</v>
+      </c>
+      <c r="D345" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A346" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" s="3">
+        <v>1</v>
+      </c>
+      <c r="D346" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A347" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C347" s="3">
+        <v>1</v>
+      </c>
+      <c r="D347" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A348" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1</v>
+      </c>
+      <c r="D348" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A349" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C349" s="3">
+        <v>1</v>
+      </c>
+      <c r="D349" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A350" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C350" s="3">
+        <v>30</v>
+      </c>
+      <c r="D350" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A351" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C351" s="3">
+        <v>1</v>
+      </c>
+      <c r="D351" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A352" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C352" s="3">
+        <v>1</v>
+      </c>
+      <c r="D352" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A353" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C353" s="3">
+        <v>1</v>
+      </c>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A354" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1</v>
+      </c>
+      <c r="D354" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A355" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C355" s="3">
+        <v>31</v>
+      </c>
+      <c r="D355" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A356" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C356" s="3">
+        <v>1</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A357" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C357" s="3">
+        <v>0</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A358" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C358" s="3">
+        <v>1</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A359" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C359" s="3">
+        <v>4</v>
+      </c>
+      <c r="D359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A360" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C360" s="3">
+        <v>1</v>
+      </c>
+      <c r="D360" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A361" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C361" s="3">
+        <v>1</v>
+      </c>
+      <c r="D361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A362" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C362" s="3">
+        <v>1</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A363" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C363" s="3">
+        <v>1</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A364" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C364" s="3">
+        <v>4</v>
+      </c>
+      <c r="D364" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A365" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C365" s="3">
+        <v>2</v>
+      </c>
+      <c r="D365" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A366" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C366" s="3">
+        <v>1</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A367" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C367" s="3">
+        <v>1</v>
+      </c>
+      <c r="D367" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A368" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C368" s="3">
+        <v>1</v>
+      </c>
+      <c r="D368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A369" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C369" s="3">
+        <v>4</v>
+      </c>
+      <c r="D369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A370" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C370" s="3">
+        <v>4</v>
+      </c>
+      <c r="D370" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A371" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C371" s="3">
+        <v>1</v>
+      </c>
+      <c r="D371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A372" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C372" s="3">
+        <v>1</v>
+      </c>
+      <c r="D372" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A373" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" s="3">
+        <v>1</v>
+      </c>
+      <c r="D373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A374" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C374" s="3">
+        <v>4</v>
+      </c>
+      <c r="D374" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A375" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C375" s="3">
+        <v>5</v>
+      </c>
+      <c r="D375" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A376" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C376" s="3">
+        <v>1</v>
+      </c>
+      <c r="D376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A377" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C377" s="3">
+        <v>1</v>
+      </c>
+      <c r="D377" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A378" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C378" s="3">
+        <v>1</v>
+      </c>
+      <c r="D378" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A379" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C379" s="3">
+        <v>4</v>
+      </c>
+      <c r="D379" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A380" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C380" s="3">
+        <v>6</v>
+      </c>
+      <c r="D380" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A381" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A382" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C382" s="3">
+        <v>1</v>
+      </c>
+      <c r="D382" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A383" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C383" s="3">
+        <v>1</v>
+      </c>
+      <c r="D383" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A384" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C384" s="3">
+        <v>4</v>
+      </c>
+      <c r="D384" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A385" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C385" s="3">
+        <v>13</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A386" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C386" s="3">
+        <v>1</v>
+      </c>
+      <c r="D386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A387" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C387" s="3">
+        <v>1</v>
+      </c>
+      <c r="D387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A388" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C388" s="3">
+        <v>1</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A389" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C389" s="3">
+        <v>4</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A390" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C390" s="3">
+        <v>14</v>
+      </c>
+      <c r="D390" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A391" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C391" s="3">
+        <v>1</v>
+      </c>
+      <c r="D391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A392" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C392" s="3">
+        <v>1</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A393" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C393" s="3">
+        <v>1</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A394" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C394" s="3">
+        <v>4</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A395" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C395" s="3">
+        <v>16</v>
+      </c>
+      <c r="D395" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A396" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C396" s="3">
+        <v>1</v>
+      </c>
+      <c r="D396" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A397" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C397" s="3">
+        <v>1</v>
+      </c>
+      <c r="D397" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A398" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C398" s="3">
+        <v>1</v>
+      </c>
+      <c r="D398" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A399" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C399" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A400" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A401" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A402" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A403" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C403" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A404" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C404" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A405" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C405" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A406" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C406" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A407" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C407" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A408" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C408" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A409" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C409" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A410" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C410" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A411" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C411" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A412" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A413" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C413" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>